--- a/Finanzen.xlsx
+++ b/Finanzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\Privat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94382428-0B81-4E9A-B65F-8D80D471BD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E86BA6-C76D-40CD-88C7-DE046ED03581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F14A158-0706-45E2-9672-35CDA419618C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F14A158-0706-45E2-9672-35CDA419618C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hauptkonto" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="83">
   <si>
     <t>Sparkonto</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Shopping Varia</t>
+  </si>
+  <si>
+    <t>Escape Room Kit Geco</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
                   <c:v>34.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +1462,7 @@
                   <c:v>34.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,7 +1690,7 @@
                   <c:v>34.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,7 +2002,7 @@
                   <c:v>34.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2289,6 +2292,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7EE3-4D40-84EB-6AD0EB579400}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2304,6 +2312,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7EE3-4D40-84EB-6AD0EB579400}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2319,6 +2332,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7EE3-4D40-84EB-6AD0EB579400}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2350,7 +2368,7 @@
                   <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,7 +2578,7 @@
                   <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,6 +3065,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-DF0F-4F1E-AF1B-9D04AB9CE5ED}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3064,6 +3087,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-DF0F-4F1E-AF1B-9D04AB9CE5ED}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4016,6 +4044,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FB5D-44FC-9AC6-B6A8FF583611}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4031,6 +4064,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB5D-44FC-9AC6-B6A8FF583611}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4046,6 +4084,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FB5D-44FC-9AC6-B6A8FF583611}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4061,6 +4104,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FB5D-44FC-9AC6-B6A8FF583611}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4076,6 +4124,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FB5D-44FC-9AC6-B6A8FF583611}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4091,6 +4144,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FB5D-44FC-9AC6-B6A8FF583611}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4108,6 +4166,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-FB5D-44FC-9AC6-B6A8FF583611}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -15296,7 +15359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8839784-8232-46A6-A303-289E5EEB5A04}">
   <dimension ref="A1:Q500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -24809,8 +24872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7D847E-F3EA-47E7-975E-5B5D54EAF877}">
   <dimension ref="A1:O500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -24918,7 +24981,7 @@
       </c>
       <c r="J5" s="5">
         <f>SUMIFS(E$4:E$500,D$4:D$500,I5)</f>
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -24927,11 +24990,24 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="C6" s="10"/>
-      <c r="E6" s="3"/>
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43866</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22.35</v>
+      </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G6" s="5"/>
       <c r="I6" s="5"/>
@@ -24947,7 +25023,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G7" s="5"/>
       <c r="I7" s="5"/>
@@ -24963,7 +25039,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G8" s="5"/>
       <c r="I8" s="5"/>
@@ -24979,7 +25055,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G9" s="5"/>
       <c r="K9" s="5"/>
@@ -24993,7 +25069,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G10" s="5"/>
       <c r="K10" s="5"/>
@@ -25007,7 +25083,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G11" s="5"/>
       <c r="K11" s="5"/>
@@ -25021,7 +25097,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G12" s="5"/>
       <c r="K12" s="5"/>
@@ -25035,7 +25111,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G13" s="5"/>
       <c r="K13" s="5"/>
@@ -25049,7 +25125,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G14" s="5"/>
       <c r="K14" s="5"/>
@@ -25063,7 +25139,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G15" s="5"/>
       <c r="K15" s="5"/>
@@ -25077,7 +25153,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G16" s="5"/>
       <c r="K16" s="5"/>
@@ -25091,7 +25167,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G17" s="5"/>
       <c r="K17" s="5"/>
@@ -25105,7 +25181,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G18" s="5"/>
       <c r="K18" s="5"/>
@@ -25119,7 +25195,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G19" s="5"/>
       <c r="I19" s="6" t="s">
@@ -25139,14 +25215,14 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G20" s="5"/>
       <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ref="J20:J28" si="1">SUMIFS(E$4:E$500,A$4:A$500,I20)</f>
+        <f t="shared" ref="J20" si="1">SUMIFS(E$4:E$500,A$4:A$500,I20)</f>
         <v>0</v>
       </c>
       <c r="K20" s="5"/>
@@ -25160,7 +25236,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G21" s="5"/>
       <c r="I21" s="5" t="s">
@@ -25178,7 +25254,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G22" s="5"/>
       <c r="I22" s="5" t="s">
@@ -25196,7 +25272,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -25214,7 +25290,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G24" s="5"/>
       <c r="I24" s="5" t="s">
@@ -25232,7 +25308,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G25" s="5"/>
       <c r="I25" s="5" t="s">
@@ -25240,7 +25316,7 @@
       </c>
       <c r="J25" s="5">
         <f>SUMIFS(E$4:E$500,A$4:A$500,I25)</f>
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -25250,7 +25326,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G26" s="5"/>
       <c r="I26" s="5"/>
@@ -25263,7 +25339,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G27" s="5"/>
       <c r="I27" s="5"/>
@@ -25276,7 +25352,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G28" s="5"/>
       <c r="N28" s="5"/>
@@ -25287,7 +25363,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G29" s="5"/>
       <c r="N29" s="5"/>
@@ -25298,7 +25374,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G30" s="5"/>
       <c r="N30" s="5"/>
@@ -25309,7 +25385,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G31" s="5"/>
       <c r="N31" s="5"/>
@@ -25320,7 +25396,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G32" s="5"/>
       <c r="N32" s="5"/>
@@ -25331,7 +25407,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G33" s="5"/>
       <c r="N33" s="5"/>
@@ -25342,7 +25418,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G34" s="5"/>
       <c r="I34" s="5"/>
@@ -25358,7 +25434,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G35" s="5"/>
       <c r="I35" s="5"/>
@@ -25374,7 +25450,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G36" s="5"/>
       <c r="I36" s="5"/>
@@ -25390,7 +25466,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G37" s="5"/>
       <c r="I37" s="6" t="s">
@@ -25410,7 +25486,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G38" s="5"/>
       <c r="I38" s="5" t="s">
@@ -25435,7 +25511,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G39" s="5"/>
       <c r="I39" s="5" t="s">
@@ -25443,7 +25519,7 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" ref="J39:J49" si="2">SUMIFS(E$4:E$500,C$4:C$500,"&gt;="&amp;L39,C$4:C$500,"&lt;="&amp;M39)</f>
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="10">
@@ -25460,7 +25536,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G40" s="5"/>
       <c r="I40" s="5" t="s">
@@ -25485,7 +25561,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G41" s="5"/>
       <c r="I41" s="5" t="s">
@@ -25510,7 +25586,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G42" s="5"/>
       <c r="I42" s="5" t="s">
@@ -25535,7 +25611,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G43" s="5"/>
       <c r="I43" s="5" t="s">
@@ -25560,7 +25636,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G44" s="5"/>
       <c r="I44" s="5" t="s">
@@ -25585,7 +25661,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G45" s="5"/>
       <c r="I45" s="5" t="s">
@@ -25610,7 +25686,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G46" s="5"/>
       <c r="I46" s="5" t="s">
@@ -25635,7 +25711,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G47" s="5"/>
       <c r="I47" s="5" t="s">
@@ -25660,7 +25736,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G48" s="5"/>
       <c r="I48" s="5" t="s">
@@ -25685,7 +25761,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G49" s="5"/>
       <c r="I49" s="5" t="s">
@@ -25710,7 +25786,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G50" s="5"/>
       <c r="I50" s="5"/>
@@ -25726,7 +25802,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3">
         <f t="shared" si="0"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G51" s="5"/>
       <c r="I51" s="5"/>
@@ -25742,7 +25818,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3">
         <f t="shared" ref="F52:F115" si="3">F51-E52</f>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G52" s="5"/>
       <c r="I52" s="5"/>
@@ -25758,7 +25834,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G53" s="5"/>
       <c r="I53" s="6" t="s">
@@ -25778,7 +25854,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G54" s="5"/>
       <c r="I54" s="5" t="s">
@@ -25799,7 +25875,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="G55" s="5"/>
       <c r="I55" s="5" t="s">
@@ -25820,14 +25896,14 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J56" s="5">
         <f>SUMIFS(E$4:E$500,A$4:A$500,I56)</f>
-        <v>0</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="57" spans="3:15">
@@ -25835,7 +25911,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -25845,7 +25921,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -25855,7 +25931,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="60" spans="3:15">
@@ -25863,7 +25939,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="61" spans="3:15">
@@ -25871,7 +25947,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="62" spans="3:15">
@@ -25879,7 +25955,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="63" spans="3:15">
@@ -25887,7 +25963,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="64" spans="3:15">
@@ -25895,7 +25971,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="65" spans="3:6">
@@ -25903,7 +25979,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="66" spans="3:6">
@@ -25911,7 +25987,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="67" spans="3:6">
@@ -25919,7 +25995,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="68" spans="3:6">
@@ -25927,7 +26003,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="69" spans="3:6">
@@ -25935,7 +26011,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="70" spans="3:6">
@@ -25943,7 +26019,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="71" spans="3:6">
@@ -25951,7 +26027,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="72" spans="3:6">
@@ -25959,7 +26035,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="73" spans="3:6">
@@ -25967,7 +26043,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="74" spans="3:6">
@@ -25975,7 +26051,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="75" spans="3:6">
@@ -25983,7 +26059,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="76" spans="3:6">
@@ -25991,7 +26067,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="77" spans="3:6">
@@ -25999,7 +26075,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="78" spans="3:6">
@@ -26007,7 +26083,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="79" spans="3:6">
@@ -26015,7 +26091,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="80" spans="3:6">
@@ -26023,7 +26099,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="81" spans="3:6">
@@ -26031,7 +26107,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="82" spans="3:6">
@@ -26039,7 +26115,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="83" spans="3:6">
@@ -26047,7 +26123,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="84" spans="3:6">
@@ -26055,7 +26131,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="85" spans="3:6">
@@ -26063,7 +26139,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="86" spans="3:6">
@@ -26071,7 +26147,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="87" spans="3:6">
@@ -26079,7 +26155,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="88" spans="3:6">
@@ -26087,7 +26163,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="89" spans="3:6">
@@ -26095,7 +26171,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="90" spans="3:6">
@@ -26103,7 +26179,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="91" spans="3:6">
@@ -26111,7 +26187,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="92" spans="3:6">
@@ -26119,7 +26195,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="93" spans="3:6">
@@ -26127,7 +26203,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="94" spans="3:6">
@@ -26135,7 +26211,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="95" spans="3:6">
@@ -26143,7 +26219,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="96" spans="3:6">
@@ -26151,7 +26227,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="97" spans="3:6">
@@ -26159,7 +26235,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="98" spans="3:6">
@@ -26167,7 +26243,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="99" spans="3:6">
@@ -26175,7 +26251,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="100" spans="3:6">
@@ -26183,7 +26259,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="101" spans="3:6">
@@ -26191,7 +26267,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="102" spans="3:6">
@@ -26199,7 +26275,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="103" spans="3:6">
@@ -26207,7 +26283,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="104" spans="3:6">
@@ -26215,7 +26291,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="105" spans="3:6">
@@ -26223,7 +26299,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="106" spans="3:6">
@@ -26231,7 +26307,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="107" spans="3:6">
@@ -26239,7 +26315,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="108" spans="3:6">
@@ -26247,7 +26323,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="109" spans="3:6">
@@ -26255,7 +26331,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="110" spans="3:6">
@@ -26263,7 +26339,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="111" spans="3:6">
@@ -26271,7 +26347,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="112" spans="3:6">
@@ -26279,7 +26355,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="113" spans="3:6">
@@ -26287,7 +26363,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="114" spans="3:6">
@@ -26295,7 +26371,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="115" spans="3:6">
@@ -26303,7 +26379,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3">
         <f t="shared" si="3"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="116" spans="3:6">
@@ -26311,7 +26387,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3">
         <f t="shared" ref="F116:F179" si="4">F115-E116</f>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="117" spans="3:6">
@@ -26319,7 +26395,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="118" spans="3:6">
@@ -26327,7 +26403,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="119" spans="3:6">
@@ -26335,7 +26411,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="120" spans="3:6">
@@ -26343,7 +26419,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="121" spans="3:6">
@@ -26351,7 +26427,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="122" spans="3:6">
@@ -26359,7 +26435,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="123" spans="3:6">
@@ -26367,7 +26443,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="124" spans="3:6">
@@ -26375,7 +26451,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="125" spans="3:6">
@@ -26383,7 +26459,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="126" spans="3:6">
@@ -26391,7 +26467,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="127" spans="3:6">
@@ -26399,7 +26475,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="128" spans="3:6">
@@ -26407,7 +26483,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="129" spans="3:6">
@@ -26415,7 +26491,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="130" spans="3:6">
@@ -26423,7 +26499,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="131" spans="3:6">
@@ -26431,7 +26507,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="132" spans="3:6">
@@ -26439,7 +26515,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="133" spans="3:6">
@@ -26447,7 +26523,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="134" spans="3:6">
@@ -26455,7 +26531,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="135" spans="3:6">
@@ -26463,7 +26539,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="136" spans="3:6">
@@ -26471,7 +26547,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="137" spans="3:6">
@@ -26479,7 +26555,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="138" spans="3:6">
@@ -26487,7 +26563,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="139" spans="3:6">
@@ -26495,7 +26571,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="140" spans="3:6">
@@ -26503,7 +26579,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="141" spans="3:6">
@@ -26511,7 +26587,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="142" spans="3:6">
@@ -26519,7 +26595,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="143" spans="3:6">
@@ -26527,7 +26603,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="144" spans="3:6">
@@ -26535,7 +26611,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="145" spans="3:6">
@@ -26543,7 +26619,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="146" spans="3:6">
@@ -26551,7 +26627,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="147" spans="3:6">
@@ -26559,7 +26635,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="148" spans="3:6">
@@ -26567,7 +26643,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="149" spans="3:6">
@@ -26575,7 +26651,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="150" spans="3:6">
@@ -26583,7 +26659,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="151" spans="3:6">
@@ -26591,7 +26667,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="152" spans="3:6">
@@ -26599,7 +26675,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="153" spans="3:6">
@@ -26607,7 +26683,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="154" spans="3:6">
@@ -26615,7 +26691,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="155" spans="3:6">
@@ -26623,7 +26699,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="156" spans="3:6">
@@ -26631,7 +26707,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="157" spans="3:6">
@@ -26639,7 +26715,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="158" spans="3:6">
@@ -26647,7 +26723,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="159" spans="3:6">
@@ -26655,7 +26731,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="160" spans="3:6">
@@ -26663,7 +26739,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="161" spans="3:6">
@@ -26671,7 +26747,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="162" spans="3:6">
@@ -26679,7 +26755,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="163" spans="3:6">
@@ -26687,7 +26763,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="164" spans="3:6">
@@ -26695,7 +26771,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="165" spans="3:6">
@@ -26703,7 +26779,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="166" spans="3:6">
@@ -26711,7 +26787,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="167" spans="3:6">
@@ -26719,7 +26795,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="168" spans="3:6">
@@ -26727,7 +26803,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="169" spans="3:6">
@@ -26735,7 +26811,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="170" spans="3:6">
@@ -26743,7 +26819,7 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="171" spans="3:6">
@@ -26751,7 +26827,7 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="172" spans="3:6">
@@ -26759,7 +26835,7 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="173" spans="3:6">
@@ -26767,7 +26843,7 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="174" spans="3:6">
@@ -26775,7 +26851,7 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="175" spans="3:6">
@@ -26783,7 +26859,7 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="176" spans="3:6">
@@ -26791,7 +26867,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="177" spans="3:6">
@@ -26799,7 +26875,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="178" spans="3:6">
@@ -26807,7 +26883,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="179" spans="3:6">
@@ -26815,7 +26891,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3">
         <f t="shared" si="4"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="180" spans="3:6">
@@ -26823,7 +26899,7 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3">
         <f t="shared" ref="F180:F243" si="5">F179-E180</f>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="181" spans="3:6">
@@ -26831,7 +26907,7 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="182" spans="3:6">
@@ -26839,7 +26915,7 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="183" spans="3:6">
@@ -26847,7 +26923,7 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="184" spans="3:6">
@@ -26855,7 +26931,7 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="185" spans="3:6">
@@ -26863,7 +26939,7 @@
       <c r="E185" s="3"/>
       <c r="F185" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="186" spans="3:6">
@@ -26871,7 +26947,7 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="187" spans="3:6">
@@ -26879,7 +26955,7 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="188" spans="3:6">
@@ -26887,7 +26963,7 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="189" spans="3:6">
@@ -26895,7 +26971,7 @@
       <c r="E189" s="3"/>
       <c r="F189" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="190" spans="3:6">
@@ -26903,7 +26979,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="191" spans="3:6">
@@ -26911,7 +26987,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="192" spans="3:6">
@@ -26919,7 +26995,7 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="193" spans="3:6">
@@ -26927,7 +27003,7 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="194" spans="3:6">
@@ -26935,7 +27011,7 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="195" spans="3:6">
@@ -26943,7 +27019,7 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="196" spans="3:6">
@@ -26951,7 +27027,7 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="197" spans="3:6">
@@ -26959,7 +27035,7 @@
       <c r="E197" s="3"/>
       <c r="F197" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="198" spans="3:6">
@@ -26967,7 +27043,7 @@
       <c r="E198" s="3"/>
       <c r="F198" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="199" spans="3:6">
@@ -26975,7 +27051,7 @@
       <c r="E199" s="3"/>
       <c r="F199" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="200" spans="3:6">
@@ -26983,7 +27059,7 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="201" spans="3:6">
@@ -26991,7 +27067,7 @@
       <c r="E201" s="3"/>
       <c r="F201" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="202" spans="3:6">
@@ -26999,7 +27075,7 @@
       <c r="E202" s="3"/>
       <c r="F202" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="203" spans="3:6">
@@ -27007,7 +27083,7 @@
       <c r="E203" s="3"/>
       <c r="F203" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="204" spans="3:6">
@@ -27015,7 +27091,7 @@
       <c r="E204" s="3"/>
       <c r="F204" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="205" spans="3:6">
@@ -27023,7 +27099,7 @@
       <c r="E205" s="3"/>
       <c r="F205" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="206" spans="3:6">
@@ -27031,7 +27107,7 @@
       <c r="E206" s="3"/>
       <c r="F206" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="207" spans="3:6">
@@ -27039,7 +27115,7 @@
       <c r="E207" s="3"/>
       <c r="F207" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="208" spans="3:6">
@@ -27047,7 +27123,7 @@
       <c r="E208" s="3"/>
       <c r="F208" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="209" spans="3:6">
@@ -27055,7 +27131,7 @@
       <c r="E209" s="3"/>
       <c r="F209" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="210" spans="3:6">
@@ -27063,7 +27139,7 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="211" spans="3:6">
@@ -27071,7 +27147,7 @@
       <c r="E211" s="3"/>
       <c r="F211" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="212" spans="3:6">
@@ -27079,7 +27155,7 @@
       <c r="E212" s="3"/>
       <c r="F212" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="213" spans="3:6">
@@ -27087,7 +27163,7 @@
       <c r="E213" s="3"/>
       <c r="F213" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="214" spans="3:6">
@@ -27095,7 +27171,7 @@
       <c r="E214" s="3"/>
       <c r="F214" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="215" spans="3:6">
@@ -27103,7 +27179,7 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="216" spans="3:6">
@@ -27111,7 +27187,7 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="217" spans="3:6">
@@ -27119,7 +27195,7 @@
       <c r="E217" s="3"/>
       <c r="F217" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="218" spans="3:6">
@@ -27127,7 +27203,7 @@
       <c r="E218" s="3"/>
       <c r="F218" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="219" spans="3:6">
@@ -27135,7 +27211,7 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="220" spans="3:6">
@@ -27143,7 +27219,7 @@
       <c r="E220" s="3"/>
       <c r="F220" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="221" spans="3:6">
@@ -27151,7 +27227,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="222" spans="3:6">
@@ -27159,7 +27235,7 @@
       <c r="E222" s="3"/>
       <c r="F222" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="223" spans="3:6">
@@ -27167,7 +27243,7 @@
       <c r="E223" s="3"/>
       <c r="F223" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="224" spans="3:6">
@@ -27175,7 +27251,7 @@
       <c r="E224" s="3"/>
       <c r="F224" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="225" spans="3:6">
@@ -27183,7 +27259,7 @@
       <c r="E225" s="3"/>
       <c r="F225" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="226" spans="3:6">
@@ -27191,7 +27267,7 @@
       <c r="E226" s="3"/>
       <c r="F226" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="227" spans="3:6">
@@ -27199,7 +27275,7 @@
       <c r="E227" s="3"/>
       <c r="F227" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="228" spans="3:6">
@@ -27207,7 +27283,7 @@
       <c r="E228" s="3"/>
       <c r="F228" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="229" spans="3:6">
@@ -27215,7 +27291,7 @@
       <c r="E229" s="3"/>
       <c r="F229" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="230" spans="3:6">
@@ -27223,7 +27299,7 @@
       <c r="E230" s="3"/>
       <c r="F230" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="231" spans="3:6">
@@ -27231,7 +27307,7 @@
       <c r="E231" s="3"/>
       <c r="F231" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="232" spans="3:6">
@@ -27239,7 +27315,7 @@
       <c r="E232" s="3"/>
       <c r="F232" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="233" spans="3:6">
@@ -27247,7 +27323,7 @@
       <c r="E233" s="3"/>
       <c r="F233" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="234" spans="3:6">
@@ -27255,7 +27331,7 @@
       <c r="E234" s="3"/>
       <c r="F234" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="235" spans="3:6">
@@ -27263,7 +27339,7 @@
       <c r="E235" s="3"/>
       <c r="F235" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="236" spans="3:6">
@@ -27271,7 +27347,7 @@
       <c r="E236" s="3"/>
       <c r="F236" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="237" spans="3:6">
@@ -27279,7 +27355,7 @@
       <c r="E237" s="3"/>
       <c r="F237" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="238" spans="3:6">
@@ -27287,7 +27363,7 @@
       <c r="E238" s="3"/>
       <c r="F238" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="239" spans="3:6">
@@ -27295,7 +27371,7 @@
       <c r="E239" s="3"/>
       <c r="F239" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="240" spans="3:6">
@@ -27303,7 +27379,7 @@
       <c r="E240" s="3"/>
       <c r="F240" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="241" spans="3:6">
@@ -27311,7 +27387,7 @@
       <c r="E241" s="3"/>
       <c r="F241" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="242" spans="3:6">
@@ -27319,7 +27395,7 @@
       <c r="E242" s="3"/>
       <c r="F242" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="243" spans="3:6">
@@ -27327,7 +27403,7 @@
       <c r="E243" s="3"/>
       <c r="F243" s="3">
         <f t="shared" si="5"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="244" spans="3:6">
@@ -27335,7 +27411,7 @@
       <c r="E244" s="3"/>
       <c r="F244" s="3">
         <f t="shared" ref="F244:F307" si="6">F243-E244</f>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="245" spans="3:6">
@@ -27343,7 +27419,7 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="246" spans="3:6">
@@ -27351,7 +27427,7 @@
       <c r="E246" s="3"/>
       <c r="F246" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="247" spans="3:6">
@@ -27359,7 +27435,7 @@
       <c r="E247" s="3"/>
       <c r="F247" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="248" spans="3:6">
@@ -27367,7 +27443,7 @@
       <c r="E248" s="3"/>
       <c r="F248" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="249" spans="3:6">
@@ -27375,7 +27451,7 @@
       <c r="E249" s="3"/>
       <c r="F249" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="250" spans="3:6">
@@ -27383,7 +27459,7 @@
       <c r="E250" s="3"/>
       <c r="F250" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="251" spans="3:6">
@@ -27391,7 +27467,7 @@
       <c r="E251" s="3"/>
       <c r="F251" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="252" spans="3:6">
@@ -27399,7 +27475,7 @@
       <c r="E252" s="3"/>
       <c r="F252" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="253" spans="3:6">
@@ -27407,7 +27483,7 @@
       <c r="E253" s="3"/>
       <c r="F253" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="254" spans="3:6">
@@ -27415,7 +27491,7 @@
       <c r="E254" s="3"/>
       <c r="F254" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="255" spans="3:6">
@@ -27423,7 +27499,7 @@
       <c r="E255" s="3"/>
       <c r="F255" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="256" spans="3:6">
@@ -27431,7 +27507,7 @@
       <c r="E256" s="3"/>
       <c r="F256" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="257" spans="3:6">
@@ -27439,7 +27515,7 @@
       <c r="E257" s="3"/>
       <c r="F257" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="258" spans="3:6">
@@ -27447,7 +27523,7 @@
       <c r="E258" s="3"/>
       <c r="F258" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="259" spans="3:6">
@@ -27455,7 +27531,7 @@
       <c r="E259" s="3"/>
       <c r="F259" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="260" spans="3:6">
@@ -27463,7 +27539,7 @@
       <c r="E260" s="3"/>
       <c r="F260" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="261" spans="3:6">
@@ -27471,7 +27547,7 @@
       <c r="E261" s="3"/>
       <c r="F261" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="262" spans="3:6">
@@ -27479,7 +27555,7 @@
       <c r="E262" s="3"/>
       <c r="F262" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="263" spans="3:6">
@@ -27487,7 +27563,7 @@
       <c r="E263" s="3"/>
       <c r="F263" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="264" spans="3:6">
@@ -27495,7 +27571,7 @@
       <c r="E264" s="3"/>
       <c r="F264" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="265" spans="3:6">
@@ -27503,7 +27579,7 @@
       <c r="E265" s="3"/>
       <c r="F265" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="266" spans="3:6">
@@ -27511,7 +27587,7 @@
       <c r="E266" s="3"/>
       <c r="F266" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="267" spans="3:6">
@@ -27519,7 +27595,7 @@
       <c r="E267" s="3"/>
       <c r="F267" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="268" spans="3:6">
@@ -27527,7 +27603,7 @@
       <c r="E268" s="3"/>
       <c r="F268" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="269" spans="3:6">
@@ -27535,7 +27611,7 @@
       <c r="E269" s="3"/>
       <c r="F269" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="270" spans="3:6">
@@ -27543,7 +27619,7 @@
       <c r="E270" s="3"/>
       <c r="F270" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="271" spans="3:6">
@@ -27551,7 +27627,7 @@
       <c r="E271" s="3"/>
       <c r="F271" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="272" spans="3:6">
@@ -27559,7 +27635,7 @@
       <c r="E272" s="3"/>
       <c r="F272" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="273" spans="3:6">
@@ -27567,7 +27643,7 @@
       <c r="E273" s="3"/>
       <c r="F273" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="274" spans="3:6">
@@ -27575,7 +27651,7 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="275" spans="3:6">
@@ -27583,7 +27659,7 @@
       <c r="E275" s="3"/>
       <c r="F275" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="276" spans="3:6">
@@ -27591,7 +27667,7 @@
       <c r="E276" s="3"/>
       <c r="F276" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="277" spans="3:6">
@@ -27599,7 +27675,7 @@
       <c r="E277" s="3"/>
       <c r="F277" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="278" spans="3:6">
@@ -27607,7 +27683,7 @@
       <c r="E278" s="3"/>
       <c r="F278" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="279" spans="3:6">
@@ -27615,7 +27691,7 @@
       <c r="E279" s="3"/>
       <c r="F279" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="280" spans="3:6">
@@ -27623,7 +27699,7 @@
       <c r="E280" s="3"/>
       <c r="F280" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="281" spans="3:6">
@@ -27631,7 +27707,7 @@
       <c r="E281" s="3"/>
       <c r="F281" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="282" spans="3:6">
@@ -27639,7 +27715,7 @@
       <c r="E282" s="3"/>
       <c r="F282" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="283" spans="3:6">
@@ -27647,7 +27723,7 @@
       <c r="E283" s="3"/>
       <c r="F283" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="284" spans="3:6">
@@ -27655,7 +27731,7 @@
       <c r="E284" s="3"/>
       <c r="F284" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="285" spans="3:6">
@@ -27663,7 +27739,7 @@
       <c r="E285" s="3"/>
       <c r="F285" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="286" spans="3:6">
@@ -27671,7 +27747,7 @@
       <c r="E286" s="3"/>
       <c r="F286" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="287" spans="3:6">
@@ -27679,7 +27755,7 @@
       <c r="E287" s="3"/>
       <c r="F287" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="288" spans="3:6">
@@ -27687,7 +27763,7 @@
       <c r="E288" s="3"/>
       <c r="F288" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="289" spans="3:6">
@@ -27695,7 +27771,7 @@
       <c r="E289" s="3"/>
       <c r="F289" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="290" spans="3:6">
@@ -27703,7 +27779,7 @@
       <c r="E290" s="3"/>
       <c r="F290" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="291" spans="3:6">
@@ -27711,7 +27787,7 @@
       <c r="E291" s="3"/>
       <c r="F291" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="292" spans="3:6">
@@ -27719,7 +27795,7 @@
       <c r="E292" s="3"/>
       <c r="F292" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="293" spans="3:6">
@@ -27727,7 +27803,7 @@
       <c r="E293" s="3"/>
       <c r="F293" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="294" spans="3:6">
@@ -27735,7 +27811,7 @@
       <c r="E294" s="3"/>
       <c r="F294" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="295" spans="3:6">
@@ -27743,7 +27819,7 @@
       <c r="E295" s="3"/>
       <c r="F295" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="296" spans="3:6">
@@ -27751,7 +27827,7 @@
       <c r="E296" s="3"/>
       <c r="F296" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="297" spans="3:6">
@@ -27759,7 +27835,7 @@
       <c r="E297" s="3"/>
       <c r="F297" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="298" spans="3:6">
@@ -27767,7 +27843,7 @@
       <c r="E298" s="3"/>
       <c r="F298" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="299" spans="3:6">
@@ -27775,7 +27851,7 @@
       <c r="E299" s="3"/>
       <c r="F299" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="300" spans="3:6">
@@ -27783,7 +27859,7 @@
       <c r="E300" s="3"/>
       <c r="F300" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="301" spans="3:6">
@@ -27791,7 +27867,7 @@
       <c r="E301" s="3"/>
       <c r="F301" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="302" spans="3:6">
@@ -27799,7 +27875,7 @@
       <c r="E302" s="3"/>
       <c r="F302" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="303" spans="3:6">
@@ -27807,7 +27883,7 @@
       <c r="E303" s="3"/>
       <c r="F303" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="304" spans="3:6">
@@ -27815,7 +27891,7 @@
       <c r="E304" s="3"/>
       <c r="F304" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="305" spans="3:6">
@@ -27823,7 +27899,7 @@
       <c r="E305" s="3"/>
       <c r="F305" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="306" spans="3:6">
@@ -27831,7 +27907,7 @@
       <c r="E306" s="3"/>
       <c r="F306" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="307" spans="3:6">
@@ -27839,7 +27915,7 @@
       <c r="E307" s="3"/>
       <c r="F307" s="3">
         <f t="shared" si="6"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="308" spans="3:6">
@@ -27847,7 +27923,7 @@
       <c r="E308" s="3"/>
       <c r="F308" s="3">
         <f t="shared" ref="F308:F371" si="7">F307-E308</f>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="309" spans="3:6">
@@ -27855,7 +27931,7 @@
       <c r="E309" s="3"/>
       <c r="F309" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="310" spans="3:6">
@@ -27863,7 +27939,7 @@
       <c r="E310" s="3"/>
       <c r="F310" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="311" spans="3:6">
@@ -27871,7 +27947,7 @@
       <c r="E311" s="3"/>
       <c r="F311" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="312" spans="3:6">
@@ -27879,7 +27955,7 @@
       <c r="E312" s="3"/>
       <c r="F312" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="313" spans="3:6">
@@ -27887,7 +27963,7 @@
       <c r="E313" s="3"/>
       <c r="F313" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="314" spans="3:6">
@@ -27895,7 +27971,7 @@
       <c r="E314" s="3"/>
       <c r="F314" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="315" spans="3:6">
@@ -27903,7 +27979,7 @@
       <c r="E315" s="3"/>
       <c r="F315" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="316" spans="3:6">
@@ -27911,7 +27987,7 @@
       <c r="E316" s="3"/>
       <c r="F316" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="317" spans="3:6">
@@ -27919,7 +27995,7 @@
       <c r="E317" s="3"/>
       <c r="F317" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="318" spans="3:6">
@@ -27927,7 +28003,7 @@
       <c r="E318" s="3"/>
       <c r="F318" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="319" spans="3:6">
@@ -27935,7 +28011,7 @@
       <c r="E319" s="3"/>
       <c r="F319" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="320" spans="3:6">
@@ -27943,7 +28019,7 @@
       <c r="E320" s="3"/>
       <c r="F320" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="321" spans="3:6">
@@ -27951,7 +28027,7 @@
       <c r="E321" s="3"/>
       <c r="F321" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="322" spans="3:6">
@@ -27959,7 +28035,7 @@
       <c r="E322" s="3"/>
       <c r="F322" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="323" spans="3:6">
@@ -27967,7 +28043,7 @@
       <c r="E323" s="3"/>
       <c r="F323" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="324" spans="3:6">
@@ -27975,7 +28051,7 @@
       <c r="E324" s="3"/>
       <c r="F324" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="325" spans="3:6">
@@ -27983,7 +28059,7 @@
       <c r="E325" s="3"/>
       <c r="F325" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="326" spans="3:6">
@@ -27991,7 +28067,7 @@
       <c r="E326" s="3"/>
       <c r="F326" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="327" spans="3:6">
@@ -27999,7 +28075,7 @@
       <c r="E327" s="3"/>
       <c r="F327" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="328" spans="3:6">
@@ -28007,7 +28083,7 @@
       <c r="E328" s="3"/>
       <c r="F328" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="329" spans="3:6">
@@ -28015,7 +28091,7 @@
       <c r="E329" s="3"/>
       <c r="F329" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="330" spans="3:6">
@@ -28023,7 +28099,7 @@
       <c r="E330" s="3"/>
       <c r="F330" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="331" spans="3:6">
@@ -28031,7 +28107,7 @@
       <c r="E331" s="3"/>
       <c r="F331" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="332" spans="3:6">
@@ -28039,7 +28115,7 @@
       <c r="E332" s="3"/>
       <c r="F332" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="333" spans="3:6">
@@ -28047,7 +28123,7 @@
       <c r="E333" s="3"/>
       <c r="F333" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="334" spans="3:6">
@@ -28055,7 +28131,7 @@
       <c r="E334" s="3"/>
       <c r="F334" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="335" spans="3:6">
@@ -28063,7 +28139,7 @@
       <c r="E335" s="3"/>
       <c r="F335" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="336" spans="3:6">
@@ -28071,7 +28147,7 @@
       <c r="E336" s="3"/>
       <c r="F336" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="337" spans="3:6">
@@ -28079,7 +28155,7 @@
       <c r="E337" s="3"/>
       <c r="F337" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="338" spans="3:6">
@@ -28087,7 +28163,7 @@
       <c r="E338" s="3"/>
       <c r="F338" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="339" spans="3:6">
@@ -28095,7 +28171,7 @@
       <c r="E339" s="3"/>
       <c r="F339" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="340" spans="3:6">
@@ -28103,7 +28179,7 @@
       <c r="E340" s="3"/>
       <c r="F340" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="341" spans="3:6">
@@ -28111,7 +28187,7 @@
       <c r="E341" s="3"/>
       <c r="F341" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="342" spans="3:6">
@@ -28119,7 +28195,7 @@
       <c r="E342" s="3"/>
       <c r="F342" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="343" spans="3:6">
@@ -28127,7 +28203,7 @@
       <c r="E343" s="3"/>
       <c r="F343" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="344" spans="3:6">
@@ -28135,7 +28211,7 @@
       <c r="E344" s="3"/>
       <c r="F344" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="345" spans="3:6">
@@ -28143,7 +28219,7 @@
       <c r="E345" s="3"/>
       <c r="F345" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="346" spans="3:6">
@@ -28151,7 +28227,7 @@
       <c r="E346" s="3"/>
       <c r="F346" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="347" spans="3:6">
@@ -28159,7 +28235,7 @@
       <c r="E347" s="3"/>
       <c r="F347" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="348" spans="3:6">
@@ -28167,7 +28243,7 @@
       <c r="E348" s="3"/>
       <c r="F348" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="349" spans="3:6">
@@ -28175,7 +28251,7 @@
       <c r="E349" s="3"/>
       <c r="F349" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="350" spans="3:6">
@@ -28183,7 +28259,7 @@
       <c r="E350" s="3"/>
       <c r="F350" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="351" spans="3:6">
@@ -28191,7 +28267,7 @@
       <c r="E351" s="3"/>
       <c r="F351" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="352" spans="3:6">
@@ -28199,7 +28275,7 @@
       <c r="E352" s="3"/>
       <c r="F352" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="353" spans="3:6">
@@ -28207,7 +28283,7 @@
       <c r="E353" s="3"/>
       <c r="F353" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="354" spans="3:6">
@@ -28215,7 +28291,7 @@
       <c r="E354" s="3"/>
       <c r="F354" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="355" spans="3:6">
@@ -28223,7 +28299,7 @@
       <c r="E355" s="3"/>
       <c r="F355" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="356" spans="3:6">
@@ -28231,7 +28307,7 @@
       <c r="E356" s="3"/>
       <c r="F356" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="357" spans="3:6">
@@ -28239,7 +28315,7 @@
       <c r="E357" s="3"/>
       <c r="F357" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="358" spans="3:6">
@@ -28247,7 +28323,7 @@
       <c r="E358" s="3"/>
       <c r="F358" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="359" spans="3:6">
@@ -28255,7 +28331,7 @@
       <c r="E359" s="3"/>
       <c r="F359" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="360" spans="3:6">
@@ -28263,7 +28339,7 @@
       <c r="E360" s="3"/>
       <c r="F360" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="361" spans="3:6">
@@ -28271,7 +28347,7 @@
       <c r="E361" s="3"/>
       <c r="F361" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="362" spans="3:6">
@@ -28279,7 +28355,7 @@
       <c r="E362" s="3"/>
       <c r="F362" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="363" spans="3:6">
@@ -28287,7 +28363,7 @@
       <c r="E363" s="3"/>
       <c r="F363" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="364" spans="3:6">
@@ -28295,7 +28371,7 @@
       <c r="E364" s="3"/>
       <c r="F364" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="365" spans="3:6">
@@ -28303,7 +28379,7 @@
       <c r="E365" s="3"/>
       <c r="F365" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="366" spans="3:6">
@@ -28311,7 +28387,7 @@
       <c r="E366" s="3"/>
       <c r="F366" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="367" spans="3:6">
@@ -28319,7 +28395,7 @@
       <c r="E367" s="3"/>
       <c r="F367" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="368" spans="3:6">
@@ -28327,7 +28403,7 @@
       <c r="E368" s="3"/>
       <c r="F368" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="369" spans="3:6">
@@ -28335,7 +28411,7 @@
       <c r="E369" s="3"/>
       <c r="F369" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="370" spans="3:6">
@@ -28343,7 +28419,7 @@
       <c r="E370" s="3"/>
       <c r="F370" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="371" spans="3:6">
@@ -28351,7 +28427,7 @@
       <c r="E371" s="3"/>
       <c r="F371" s="3">
         <f t="shared" si="7"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="372" spans="3:6">
@@ -28359,7 +28435,7 @@
       <c r="E372" s="3"/>
       <c r="F372" s="3">
         <f t="shared" ref="F372:F435" si="8">F371-E372</f>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="373" spans="3:6">
@@ -28367,7 +28443,7 @@
       <c r="E373" s="3"/>
       <c r="F373" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="374" spans="3:6">
@@ -28375,7 +28451,7 @@
       <c r="E374" s="3"/>
       <c r="F374" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="375" spans="3:6">
@@ -28383,7 +28459,7 @@
       <c r="E375" s="3"/>
       <c r="F375" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="376" spans="3:6">
@@ -28391,7 +28467,7 @@
       <c r="E376" s="3"/>
       <c r="F376" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="377" spans="3:6">
@@ -28399,7 +28475,7 @@
       <c r="E377" s="3"/>
       <c r="F377" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="378" spans="3:6">
@@ -28407,7 +28483,7 @@
       <c r="E378" s="3"/>
       <c r="F378" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="379" spans="3:6">
@@ -28415,7 +28491,7 @@
       <c r="E379" s="3"/>
       <c r="F379" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="380" spans="3:6">
@@ -28423,7 +28499,7 @@
       <c r="E380" s="3"/>
       <c r="F380" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="381" spans="3:6">
@@ -28431,7 +28507,7 @@
       <c r="E381" s="3"/>
       <c r="F381" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="382" spans="3:6">
@@ -28439,7 +28515,7 @@
       <c r="E382" s="3"/>
       <c r="F382" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="383" spans="3:6">
@@ -28447,7 +28523,7 @@
       <c r="E383" s="3"/>
       <c r="F383" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="384" spans="3:6">
@@ -28455,7 +28531,7 @@
       <c r="E384" s="3"/>
       <c r="F384" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="385" spans="3:6">
@@ -28463,7 +28539,7 @@
       <c r="E385" s="3"/>
       <c r="F385" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="386" spans="3:6">
@@ -28471,7 +28547,7 @@
       <c r="E386" s="3"/>
       <c r="F386" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="387" spans="3:6">
@@ -28479,7 +28555,7 @@
       <c r="E387" s="3"/>
       <c r="F387" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="388" spans="3:6">
@@ -28487,7 +28563,7 @@
       <c r="E388" s="3"/>
       <c r="F388" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="389" spans="3:6">
@@ -28495,7 +28571,7 @@
       <c r="E389" s="3"/>
       <c r="F389" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="390" spans="3:6">
@@ -28503,7 +28579,7 @@
       <c r="E390" s="3"/>
       <c r="F390" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="391" spans="3:6">
@@ -28511,7 +28587,7 @@
       <c r="E391" s="3"/>
       <c r="F391" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="392" spans="3:6">
@@ -28519,7 +28595,7 @@
       <c r="E392" s="3"/>
       <c r="F392" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="393" spans="3:6">
@@ -28527,7 +28603,7 @@
       <c r="E393" s="3"/>
       <c r="F393" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="394" spans="3:6">
@@ -28535,7 +28611,7 @@
       <c r="E394" s="3"/>
       <c r="F394" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="395" spans="3:6">
@@ -28543,7 +28619,7 @@
       <c r="E395" s="3"/>
       <c r="F395" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="396" spans="3:6">
@@ -28551,7 +28627,7 @@
       <c r="E396" s="3"/>
       <c r="F396" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="397" spans="3:6">
@@ -28559,7 +28635,7 @@
       <c r="E397" s="3"/>
       <c r="F397" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="398" spans="3:6">
@@ -28567,7 +28643,7 @@
       <c r="E398" s="3"/>
       <c r="F398" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="399" spans="3:6">
@@ -28575,7 +28651,7 @@
       <c r="E399" s="3"/>
       <c r="F399" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="400" spans="3:6">
@@ -28583,7 +28659,7 @@
       <c r="E400" s="3"/>
       <c r="F400" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="401" spans="3:6">
@@ -28591,7 +28667,7 @@
       <c r="E401" s="3"/>
       <c r="F401" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="402" spans="3:6">
@@ -28599,7 +28675,7 @@
       <c r="E402" s="3"/>
       <c r="F402" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="403" spans="3:6">
@@ -28607,7 +28683,7 @@
       <c r="E403" s="3"/>
       <c r="F403" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="404" spans="3:6">
@@ -28615,7 +28691,7 @@
       <c r="E404" s="3"/>
       <c r="F404" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="405" spans="3:6">
@@ -28623,7 +28699,7 @@
       <c r="E405" s="3"/>
       <c r="F405" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="406" spans="3:6">
@@ -28631,7 +28707,7 @@
       <c r="E406" s="3"/>
       <c r="F406" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="407" spans="3:6">
@@ -28639,7 +28715,7 @@
       <c r="E407" s="3"/>
       <c r="F407" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="408" spans="3:6">
@@ -28647,7 +28723,7 @@
       <c r="E408" s="3"/>
       <c r="F408" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="409" spans="3:6">
@@ -28655,7 +28731,7 @@
       <c r="E409" s="3"/>
       <c r="F409" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="410" spans="3:6">
@@ -28663,7 +28739,7 @@
       <c r="E410" s="3"/>
       <c r="F410" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="411" spans="3:6">
@@ -28671,7 +28747,7 @@
       <c r="E411" s="3"/>
       <c r="F411" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="412" spans="3:6">
@@ -28679,7 +28755,7 @@
       <c r="E412" s="3"/>
       <c r="F412" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="413" spans="3:6">
@@ -28687,7 +28763,7 @@
       <c r="E413" s="3"/>
       <c r="F413" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="414" spans="3:6">
@@ -28695,7 +28771,7 @@
       <c r="E414" s="3"/>
       <c r="F414" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="415" spans="3:6">
@@ -28703,7 +28779,7 @@
       <c r="E415" s="3"/>
       <c r="F415" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="416" spans="3:6">
@@ -28711,7 +28787,7 @@
       <c r="E416" s="3"/>
       <c r="F416" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="417" spans="3:6">
@@ -28719,7 +28795,7 @@
       <c r="E417" s="3"/>
       <c r="F417" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="418" spans="3:6">
@@ -28727,7 +28803,7 @@
       <c r="E418" s="3"/>
       <c r="F418" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="419" spans="3:6">
@@ -28735,7 +28811,7 @@
       <c r="E419" s="3"/>
       <c r="F419" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="420" spans="3:6">
@@ -28743,7 +28819,7 @@
       <c r="E420" s="3"/>
       <c r="F420" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="421" spans="3:6">
@@ -28751,7 +28827,7 @@
       <c r="E421" s="3"/>
       <c r="F421" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="422" spans="3:6">
@@ -28759,7 +28835,7 @@
       <c r="E422" s="3"/>
       <c r="F422" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="423" spans="3:6">
@@ -28767,7 +28843,7 @@
       <c r="E423" s="3"/>
       <c r="F423" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="424" spans="3:6">
@@ -28775,7 +28851,7 @@
       <c r="E424" s="3"/>
       <c r="F424" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="425" spans="3:6">
@@ -28783,7 +28859,7 @@
       <c r="E425" s="3"/>
       <c r="F425" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="426" spans="3:6">
@@ -28791,7 +28867,7 @@
       <c r="E426" s="3"/>
       <c r="F426" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="427" spans="3:6">
@@ -28799,7 +28875,7 @@
       <c r="E427" s="3"/>
       <c r="F427" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="428" spans="3:6">
@@ -28807,7 +28883,7 @@
       <c r="E428" s="3"/>
       <c r="F428" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="429" spans="3:6">
@@ -28815,7 +28891,7 @@
       <c r="E429" s="3"/>
       <c r="F429" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="430" spans="3:6">
@@ -28823,7 +28899,7 @@
       <c r="E430" s="3"/>
       <c r="F430" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="431" spans="3:6">
@@ -28831,7 +28907,7 @@
       <c r="E431" s="3"/>
       <c r="F431" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="432" spans="3:6">
@@ -28839,7 +28915,7 @@
       <c r="E432" s="3"/>
       <c r="F432" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="433" spans="3:6">
@@ -28847,7 +28923,7 @@
       <c r="E433" s="3"/>
       <c r="F433" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="434" spans="3:6">
@@ -28855,7 +28931,7 @@
       <c r="E434" s="3"/>
       <c r="F434" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="435" spans="3:6">
@@ -28863,7 +28939,7 @@
       <c r="E435" s="3"/>
       <c r="F435" s="3">
         <f t="shared" si="8"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="436" spans="3:6">
@@ -28871,7 +28947,7 @@
       <c r="E436" s="3"/>
       <c r="F436" s="3">
         <f t="shared" ref="F436:F499" si="9">F435-E436</f>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="437" spans="3:6">
@@ -28879,7 +28955,7 @@
       <c r="E437" s="3"/>
       <c r="F437" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="438" spans="3:6">
@@ -28887,7 +28963,7 @@
       <c r="E438" s="3"/>
       <c r="F438" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="439" spans="3:6">
@@ -28895,7 +28971,7 @@
       <c r="E439" s="3"/>
       <c r="F439" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="440" spans="3:6">
@@ -28903,7 +28979,7 @@
       <c r="E440" s="3"/>
       <c r="F440" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="441" spans="3:6">
@@ -28911,7 +28987,7 @@
       <c r="E441" s="3"/>
       <c r="F441" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="442" spans="3:6">
@@ -28919,7 +28995,7 @@
       <c r="E442" s="3"/>
       <c r="F442" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="443" spans="3:6">
@@ -28927,7 +29003,7 @@
       <c r="E443" s="3"/>
       <c r="F443" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="444" spans="3:6">
@@ -28935,7 +29011,7 @@
       <c r="E444" s="3"/>
       <c r="F444" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="445" spans="3:6">
@@ -28943,7 +29019,7 @@
       <c r="E445" s="3"/>
       <c r="F445" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="446" spans="3:6">
@@ -28951,7 +29027,7 @@
       <c r="E446" s="3"/>
       <c r="F446" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="447" spans="3:6">
@@ -28959,7 +29035,7 @@
       <c r="E447" s="3"/>
       <c r="F447" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="448" spans="3:6">
@@ -28967,7 +29043,7 @@
       <c r="E448" s="3"/>
       <c r="F448" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="449" spans="3:6">
@@ -28975,7 +29051,7 @@
       <c r="E449" s="3"/>
       <c r="F449" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="450" spans="3:6">
@@ -28983,7 +29059,7 @@
       <c r="E450" s="3"/>
       <c r="F450" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="451" spans="3:6">
@@ -28991,7 +29067,7 @@
       <c r="E451" s="3"/>
       <c r="F451" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="452" spans="3:6">
@@ -28999,7 +29075,7 @@
       <c r="E452" s="3"/>
       <c r="F452" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="453" spans="3:6">
@@ -29007,7 +29083,7 @@
       <c r="E453" s="3"/>
       <c r="F453" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="454" spans="3:6">
@@ -29015,7 +29091,7 @@
       <c r="E454" s="3"/>
       <c r="F454" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="455" spans="3:6">
@@ -29023,7 +29099,7 @@
       <c r="E455" s="3"/>
       <c r="F455" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="456" spans="3:6">
@@ -29031,7 +29107,7 @@
       <c r="E456" s="3"/>
       <c r="F456" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="457" spans="3:6">
@@ -29039,7 +29115,7 @@
       <c r="E457" s="3"/>
       <c r="F457" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="458" spans="3:6">
@@ -29047,7 +29123,7 @@
       <c r="E458" s="3"/>
       <c r="F458" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="459" spans="3:6">
@@ -29055,7 +29131,7 @@
       <c r="E459" s="3"/>
       <c r="F459" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="460" spans="3:6">
@@ -29063,7 +29139,7 @@
       <c r="E460" s="3"/>
       <c r="F460" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="461" spans="3:6">
@@ -29071,7 +29147,7 @@
       <c r="E461" s="3"/>
       <c r="F461" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="462" spans="3:6">
@@ -29079,7 +29155,7 @@
       <c r="E462" s="3"/>
       <c r="F462" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="463" spans="3:6">
@@ -29087,7 +29163,7 @@
       <c r="E463" s="3"/>
       <c r="F463" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="464" spans="3:6">
@@ -29095,7 +29171,7 @@
       <c r="E464" s="3"/>
       <c r="F464" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="465" spans="3:6">
@@ -29103,7 +29179,7 @@
       <c r="E465" s="3"/>
       <c r="F465" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="466" spans="3:6">
@@ -29111,7 +29187,7 @@
       <c r="E466" s="3"/>
       <c r="F466" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="467" spans="3:6">
@@ -29119,7 +29195,7 @@
       <c r="E467" s="3"/>
       <c r="F467" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="468" spans="3:6">
@@ -29127,7 +29203,7 @@
       <c r="E468" s="3"/>
       <c r="F468" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="469" spans="3:6">
@@ -29135,7 +29211,7 @@
       <c r="E469" s="3"/>
       <c r="F469" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="470" spans="3:6">
@@ -29143,7 +29219,7 @@
       <c r="E470" s="3"/>
       <c r="F470" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="471" spans="3:6">
@@ -29151,7 +29227,7 @@
       <c r="E471" s="3"/>
       <c r="F471" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="472" spans="3:6">
@@ -29159,7 +29235,7 @@
       <c r="E472" s="3"/>
       <c r="F472" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="473" spans="3:6">
@@ -29167,7 +29243,7 @@
       <c r="E473" s="3"/>
       <c r="F473" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="474" spans="3:6">
@@ -29175,7 +29251,7 @@
       <c r="E474" s="3"/>
       <c r="F474" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="475" spans="3:6">
@@ -29183,7 +29259,7 @@
       <c r="E475" s="3"/>
       <c r="F475" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="476" spans="3:6">
@@ -29191,7 +29267,7 @@
       <c r="E476" s="3"/>
       <c r="F476" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="477" spans="3:6">
@@ -29199,7 +29275,7 @@
       <c r="E477" s="3"/>
       <c r="F477" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="478" spans="3:6">
@@ -29207,7 +29283,7 @@
       <c r="E478" s="3"/>
       <c r="F478" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="479" spans="3:6">
@@ -29215,7 +29291,7 @@
       <c r="E479" s="3"/>
       <c r="F479" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="480" spans="3:6">
@@ -29223,7 +29299,7 @@
       <c r="E480" s="3"/>
       <c r="F480" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="481" spans="3:6">
@@ -29231,7 +29307,7 @@
       <c r="E481" s="3"/>
       <c r="F481" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="482" spans="3:6">
@@ -29239,7 +29315,7 @@
       <c r="E482" s="3"/>
       <c r="F482" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="483" spans="3:6">
@@ -29247,7 +29323,7 @@
       <c r="E483" s="3"/>
       <c r="F483" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="484" spans="3:6">
@@ -29255,7 +29331,7 @@
       <c r="E484" s="3"/>
       <c r="F484" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="485" spans="3:6">
@@ -29263,7 +29339,7 @@
       <c r="E485" s="3"/>
       <c r="F485" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="486" spans="3:6">
@@ -29271,7 +29347,7 @@
       <c r="E486" s="3"/>
       <c r="F486" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="487" spans="3:6">
@@ -29279,7 +29355,7 @@
       <c r="E487" s="3"/>
       <c r="F487" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="488" spans="3:6">
@@ -29287,7 +29363,7 @@
       <c r="E488" s="3"/>
       <c r="F488" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="489" spans="3:6">
@@ -29295,7 +29371,7 @@
       <c r="E489" s="3"/>
       <c r="F489" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="490" spans="3:6">
@@ -29303,7 +29379,7 @@
       <c r="E490" s="3"/>
       <c r="F490" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="491" spans="3:6">
@@ -29311,7 +29387,7 @@
       <c r="E491" s="3"/>
       <c r="F491" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="492" spans="3:6">
@@ -29319,7 +29395,7 @@
       <c r="E492" s="3"/>
       <c r="F492" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="493" spans="3:6">
@@ -29327,7 +29403,7 @@
       <c r="E493" s="3"/>
       <c r="F493" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="494" spans="3:6">
@@ -29335,7 +29411,7 @@
       <c r="E494" s="3"/>
       <c r="F494" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="495" spans="3:6">
@@ -29343,7 +29419,7 @@
       <c r="E495" s="3"/>
       <c r="F495" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="496" spans="3:6">
@@ -29351,7 +29427,7 @@
       <c r="E496" s="3"/>
       <c r="F496" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="497" spans="3:6">
@@ -29359,7 +29435,7 @@
       <c r="E497" s="3"/>
       <c r="F497" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="498" spans="3:6">
@@ -29367,7 +29443,7 @@
       <c r="E498" s="3"/>
       <c r="F498" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="499" spans="3:6">
@@ -29375,7 +29451,7 @@
       <c r="E499" s="3"/>
       <c r="F499" s="3">
         <f t="shared" si="9"/>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
     <row r="500" spans="3:6">
@@ -29383,7 +29459,7 @@
       <c r="E500" s="3"/>
       <c r="F500" s="3">
         <f t="shared" ref="F500" si="10">F499-E500</f>
-        <v>202.42000000000002</v>
+        <v>180.07000000000002</v>
       </c>
     </row>
   </sheetData>
